--- a/real_life_playing/human_results/summarize.xlsx
+++ b/real_life_playing/human_results/summarize.xlsx
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>31.25</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.5</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>30.27777777777777</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>69.33333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>23.75</v>
+        <v>42.22222222222221</v>
       </c>
     </row>
   </sheetData>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.83333333333333</v>
+        <v>38.45454545454545</v>
       </c>
       <c r="C2" t="n">
-        <v>58.33333333333333</v>
+        <v>49.07407407407407</v>
       </c>
     </row>
   </sheetData>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.22222222222222</v>
+        <v>42.90909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>47.02380952380952</v>
+        <v>50.98605098605099</v>
       </c>
     </row>
   </sheetData>
